--- a/output/CodeSystem-mii-cs-summary-report-codes.xlsx
+++ b/output/CodeSystem-mii-cs-summary-report-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T11:47:02+02:00</t>
+    <t>2025-10-16T14:22:49+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-mii-cs-summary-report-codes.xlsx
+++ b/output/CodeSystem-mii-cs-summary-report-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T14:22:49+02:00</t>
+    <t>2025-10-16T14:42:59+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-mii-cs-summary-report-codes.xlsx
+++ b/output/CodeSystem-mii-cs-summary-report-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T14:42:59+02:00</t>
+    <t>2025-10-16T14:55:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-mii-cs-summary-report-codes.xlsx
+++ b/output/CodeSystem-mii-cs-summary-report-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T14:55:17+02:00</t>
+    <t>2025-10-16T15:00:46+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-mii-cs-summary-report-codes.xlsx
+++ b/output/CodeSystem-mii-cs-summary-report-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T15:00:46+02:00</t>
+    <t>2025-10-17T14:13:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/CodeSystem-mii-cs-summary-report-codes.xlsx
+++ b/output/CodeSystem-mii-cs-summary-report-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T14:13:03+02:00</t>
+    <t>2025-10-21T12:33:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
